--- a/prod.xlsx
+++ b/prod.xlsx
@@ -681,10 +681,24 @@
           <t>Засіб Lactacyd для інтимної гігієни 200мл</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195,00 </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr16505/</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>61</v>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">199.00 </t>
@@ -730,10 +744,24 @@
           <t>Засіб Lactacyd Свіжість для інтимної гігієни 200мл</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195,00 </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr16504/</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>56</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">199.00 </t>
@@ -779,10 +807,24 @@
           <t>Засіб Lactacyd Заспокійливий для інтимної гігієни 200мл</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195,00 </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr16507/</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>57</v>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">199.00 </t>
@@ -828,10 +870,24 @@
           <t>Тампони Tampax Compak Super з аплікатором 16шт</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr649429/</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>83</v>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">159.00 </t>
@@ -877,10 +933,24 @@
           <t>Тампони Kotex нормал 16+8шт</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58,00 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313866/</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>56</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">120.00 </t>
@@ -926,10 +996,24 @@
           <t>Прокладки Naturella Ultra Camomile Normal 10шт</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>47</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -975,10 +1059,24 @@
           <t>Прокладки Libresse Dailies Style щоденні 32шт</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr41676/</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>72</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">89.99 </t>
@@ -1024,10 +1122,24 @@
           <t>Прокладки гігієнічні ALWAYS Ultra Night екстра захист Duo 12шт</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>36</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">72.99 </t>
@@ -1073,10 +1185,24 @@
           <t>Тампони Kotex Нормал з аплікатором 8шт</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,00 </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88,00 </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313848/</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>78</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">75.99 </t>
@@ -1122,10 +1248,24 @@
           <t>Прокладки Discreet Deo Waterlily 60шт</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20234/</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -1171,10 +1311,24 @@
           <t>Прокладки Always Ultra Normal ароматизовані 10шт</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861267/</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>71</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">72.49 </t>
@@ -1220,10 +1374,24 @@
           <t>Пелюшки Tena Bed Plus одноразові 60х60см 5шт</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">602,00 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">803,00 </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr17752/</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>46</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">84.99 </t>
@@ -1269,10 +1437,24 @@
           <t>Пелюшки Tena Bed Plus одноразові 60х90см 5шт</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">602,00 </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">803,00 </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr17752/</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>48</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">84.99 </t>
@@ -1318,10 +1500,24 @@
           <t>Тампони Tampax Regular Compak Duo гігієнічні з аплікатором 16шт</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr637531/</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>73</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">159.00 </t>
@@ -1367,10 +1563,24 @@
           <t>Прокладки Always Ultra Normal ароматизовані 20шт</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861267/</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>69</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">72.49 </t>
@@ -1416,10 +1626,24 @@
           <t>Тампони Kotex Супер з аплікатором 8шт</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,00 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88,00 </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313845/</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>80</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">75.99 </t>
@@ -1465,10 +1689,24 @@
           <t>Засіб Lactacyd Girl для інтимної гігієни 200мл</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195,00 </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr30765/</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>56</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">199.00 </t>
@@ -1514,10 +1752,24 @@
           <t>Прокладки Always Ultra Platinum Quadro Безпечна Ніч гігієнічні ароматизовані 20шт</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>36</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -1563,10 +1815,24 @@
           <t>Прокладки Kotex Deo Normal+ 56шт</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13297/</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>77</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">82.99 </t>
@@ -1612,10 +1878,24 @@
           <t>Тампони O.b. Original Super 16шт</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>47</v>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -1661,10 +1941,24 @@
           <t>Прокладки Kotex Ultra Night 7шт</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20367/</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>70</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">45.00 </t>
@@ -1710,10 +2004,24 @@
           <t>Тампони Kotex Natural Normal 16шт</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100,00 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120,00 </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr226141/</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>97</v>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">84.99 </t>
@@ -1759,10 +2067,24 @@
           <t>Прокладки Naturella Classic Normal 10шт</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr772039/</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>49</v>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">56.99 </t>
@@ -1808,10 +2130,24 @@
           <t>Прокладки Kotex Natural Night Duo гігієнічні 12шт</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr870939/</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>49</v>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">47.99 </t>
@@ -1857,10 +2193,24 @@
           <t>Тампони Tampax Super Plus Non-Plastic 18шт</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>59</v>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -1906,10 +2256,24 @@
           <t>Прокладки Naturella Ultra Normal 20шт</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20523/</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>57</v>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -1955,10 +2319,24 @@
           <t>Прокладки Kotex Ultra Soft Normal Duo 20шт</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20369/</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>61</v>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">79.90 </t>
@@ -2004,10 +2382,24 @@
           <t>Прокладки Libresse Ultra Normal Aloe Vera &amp; Camomile гігієнічні 10шт</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32,00 </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016199/</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>53</v>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -2053,10 +2445,24 @@
           <t>Гель O’Shy Aloe Vera для інтимної гігієни 500мл</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">122,00 </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr982251/</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>56</v>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">399.00 </t>
@@ -2102,10 +2508,24 @@
           <t>Прокладки Kotex Bio-Care Нормал гігієнічні з антибактеріальним шаром 8шт</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54,00 </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr843448/</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>55</v>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">44.99 </t>
@@ -2151,10 +2571,24 @@
           <t>Прокладки Kotex Bio-Care Нічні гігієнічні з антибактеріальним шаром 6шт</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54,00 </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr843451/</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>54</v>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">44.99 </t>
@@ -2200,10 +2634,24 @@
           <t>Тампони Tampax Regular Duo гігієнічні з аплікатором 18шт</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr637531/</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>75</v>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">134.00 </t>
@@ -2249,10 +2697,24 @@
           <t>Прокладки Discreet Deo Waterlily Multiform 20шт</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20234/</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>85</v>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -2298,10 +2760,24 @@
           <t>Прокладки Always Ultra Light ароматизовані 20шт</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20077/</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>51</v>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">139.00 </t>
@@ -2347,10 +2823,24 @@
           <t>Прокладки Discreet Normal щоденні гігієнічні 120шт</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">184,00 </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199,00 </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr741151/</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>51</v>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">37.99 </t>
@@ -2396,10 +2886,24 @@
           <t>Прокладки Kotex Natural Нормал 40шт</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50,00 </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57,00 </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr337071/</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>63</v>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve">45.00 </t>
@@ -2445,10 +2949,24 @@
           <t>Прокладки Kotex Natural Нічні 6шт</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr868311/</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>72</v>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">47.99 </t>
@@ -2494,10 +3012,24 @@
           <t>Прокладки Kotex Ultra Dry Normal 10шт</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20368/</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>67</v>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">79.90 </t>
@@ -2543,10 +3075,24 @@
           <t>Прокладки Lidie Normal 50шт</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,00 </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76,00 </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11131/</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>62</v>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve">76.49 </t>
@@ -2592,10 +3138,24 @@
           <t>Прокладки Tena Lady Slim Ultra Mini урологічні жіночі 48шт</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54,00 </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,90 </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr794524/</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>56</v>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve">154.00 </t>
@@ -2641,10 +3201,24 @@
           <t>Тампони O.b. ProComfort Super Plus 16шт</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>58</v>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -2690,10 +3264,24 @@
           <t>Тампони O.b. ProComfort Super 16шт</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>51</v>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -2739,10 +3327,24 @@
           <t>Тампони Kotex Active Super 8шт</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58,00 </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313863/</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>89</v>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">91.99 </t>
@@ -2788,10 +3390,24 @@
           <t>Прокладки Naturella Camomile Comfort Normal 44шт</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">159,00 </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr43564/</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>62</v>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -2837,10 +3453,24 @@
           <t>Прокладки Kotex Natural Супер 7шт</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr113518/</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>76</v>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">120.00 </t>
@@ -2886,10 +3516,24 @@
           <t>Прокладки Kotex Natural Нормал 8шт</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr870939/</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>72</v>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">45.00 </t>
@@ -2935,10 +3579,24 @@
           <t>Гель Triuga Ayurveda Sensitive Ultra Comfort для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">107,00 </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">132,00 </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr198397/</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>49</v>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">349.00 </t>
@@ -2984,10 +3642,24 @@
           <t>Прокладки Libresse Dailies FreshLong щоденні 26шт</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64,00 </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr103866/</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>63</v>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t xml:space="preserve">89.99 </t>
@@ -3033,10 +3705,24 @@
           <t>Прокладки Naturella Ultra Camomile Maxi 8шт</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>43</v>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -3082,10 +3768,24 @@
           <t>Тампони O.b. ProComfort Super 8шт</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>47</v>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -3131,10 +3831,24 @@
           <t>Прокладки Always Ultra Sensitive Normal Plus гігієнічні 10шт</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>44</v>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve">72.49 </t>
@@ -3180,10 +3894,24 @@
           <t>Прокладки Always Platinum Ultra Night 12шт</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259,00 </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754786/</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>67</v>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve">129.00 </t>
@@ -3229,10 +3957,24 @@
           <t>Прокладки TENA урологічні Lady Slim UM 21x14p B6 SRP</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr113692/</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>51</v>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -3278,10 +4020,24 @@
           <t>Прокладки Bella for Teens Ultra Sensitive 20шт</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36,00 </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr639028/</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>82</v>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t xml:space="preserve">89.00 </t>
@@ -3327,10 +4083,24 @@
           <t>Тампони Kotex Міні 8шт</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313860/</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>70</v>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve">55.49 </t>
@@ -3376,10 +4146,24 @@
           <t>Прокладки Bella for Teens Panty Sensitive щоденні 20шт</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>53</v>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -3425,10 +4209,24 @@
           <t>Тампони O.b. ProComfort Normal 8шт</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>37</v>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -3474,10 +4272,24 @@
           <t>Прокладки Always Ultra Super ароматизовані 8шт</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr794509/</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>69</v>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -3523,10 +4335,24 @@
           <t>Гель Nivea Intimo Mild Comfort для інтимної гігієни 250мл</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199,00 </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">229,00 </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11532/</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>46</v>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve">269.00 </t>
@@ -3572,10 +4398,24 @@
           <t>Прокладки Kotex Natural Normal Duo гігієнічні 16шт</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr870939/</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>48</v>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve">47.99 </t>
@@ -3621,10 +4461,24 @@
           <t>Прокладки Bella for Teens Panty Relax щоденні 20шт</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>62</v>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -3670,10 +4524,24 @@
           <t>Прокладки Kotex Ultra Dry Super 8шт</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20370/</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>67</v>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t xml:space="preserve">79.90 </t>
@@ -3719,10 +4587,24 @@
           <t>Прокладки Kotex Ultra Soft Normal 10шт</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20369/</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>63</v>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve">79.90 </t>
@@ -3768,10 +4650,24 @@
           <t>Прокладки Always Ultra Platinum Single Безпечна Ніч гігієнічні ароматизовані 5шт</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>41</v>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -3817,10 +4713,24 @@
           <t>Прокладки TENA урологічні Lady Slim Normal 6x12p</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr829909/</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>62</v>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -3866,10 +4776,24 @@
           <t>Прокладки Carefree Plus Large жіночі гігієнічні щоденні 20шт</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64,00 </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,00 </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr777826/</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>33</v>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t xml:space="preserve">95.49 </t>
@@ -3915,10 +4839,24 @@
           <t>Прокладки Bella Perfecta Ultra Blue 10шт</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>45</v>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t xml:space="preserve">51.99 </t>
@@ -3964,10 +4902,24 @@
           <t>Прокладки Kotex Ultra Dry Normal Duo 20шт</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20368/</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>64</v>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t xml:space="preserve">79.90 </t>
@@ -4013,10 +4965,24 @@
           <t>Прокладки Libresse Dailies Natural Care Regular Aloe Vera &amp; Camomile щоденні 40шт</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74,00 </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr387674/</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>66</v>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
           <t xml:space="preserve">73.99 </t>
@@ -4062,10 +5028,24 @@
           <t>Молочко O’Shy Soft Care для інтимної гігієни 500мл</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">122,00 </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr982230/</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>59</v>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t xml:space="preserve">55.99 </t>
@@ -4111,10 +5091,24 @@
           <t>Прокладки Tena Lady Slim Normal урологічні жіночі 24шт</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr829909/</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>52</v>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t xml:space="preserve">61.99 </t>
@@ -4160,10 +5154,24 @@
           <t>Рідина Bella for Teens Sensitive для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300,00 </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">315,00 </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11761/</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>28</v>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
           <t xml:space="preserve">89.00 </t>
@@ -4209,10 +5217,24 @@
           <t>Прокладки Bella Panty Ideale Large щоденні 20шт</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32245/</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>58</v>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t xml:space="preserve">92.49 </t>
@@ -4258,10 +5280,24 @@
           <t>Прокладки Kotex Natural Нормал щоденні 20шт</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50,00 </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57,00 </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr337071/</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>57</v>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
           <t xml:space="preserve">45.00 </t>
@@ -4307,10 +5343,24 @@
           <t>Прокладки Bella Panty Ideale Normal щоденні 28шт</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32245/</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>56</v>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t xml:space="preserve">92.49 </t>
@@ -4356,10 +5406,24 @@
           <t>Фіто-мило Viva Oliva Ніжне з оливковою олією та липовим цвітом інтимне 400мл</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">128,00 </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">144,00 </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr34627/</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>51</v>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t xml:space="preserve">649.00 </t>
@@ -4405,10 +5469,24 @@
           <t>Прокладки Bella Perfecta Ultra Maxi Green 8шт</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>44</v>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t xml:space="preserve">51.99 </t>
@@ -4454,10 +5532,24 @@
           <t>Гель Beautyderm Aloe Vera для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr389330/</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>58</v>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t xml:space="preserve">399.00 </t>
@@ -4503,10 +5595,24 @@
           <t>Прокладки Naturella Ultra Camomile Night 7шт</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>42</v>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -4552,10 +5658,24 @@
           <t>Прокладки Carefree М’якість бавовни з Алое жіночі гігієнічні щоденні 30шт</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64,00 </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,00 </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr777826/</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>25</v>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t xml:space="preserve">81.49 </t>
@@ -4601,10 +5721,24 @@
           <t>Прокладки Always Ultra Night ароматизовані 7шт</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>52</v>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t xml:space="preserve">129.00 </t>
@@ -4650,10 +5784,24 @@
           <t>Прокладки Discreet Plus Deo Waterlily 52шт</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119,00 </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr35368/</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>68</v>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -4699,10 +5847,24 @@
           <t>Прокладки Always Daily Fresh Normal Duo Без запаху гігієнічні щоденні 30шт</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr845104/</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>62</v>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t xml:space="preserve">119.00 </t>
@@ -4748,10 +5910,24 @@
           <t>Прокладки Always Daily Protect Long Single гігієнічні щоденні ароматизовані 26шт</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr854763/</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>57</v>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t xml:space="preserve">119.00 </t>
@@ -4797,10 +5973,24 @@
           <t>Прокладки Naturella Camomile Light 20шт</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49,00 </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr649423/</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>62</v>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t xml:space="preserve">45.99 </t>
@@ -4846,10 +6036,24 @@
           <t>Гель Triuga Ayurveda Soft Ultra Comfort для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">107,00 </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">132,00 </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr198397/</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>52</v>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t xml:space="preserve">349.00 </t>
@@ -4895,10 +6099,24 @@
           <t>Прокладки Libresse Pure Sensitive Ultra + 12шт</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48,49 </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,90 </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr583680/</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>78</v>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t xml:space="preserve">66.99 </t>
@@ -4944,10 +6162,24 @@
           <t>Прокладки Bella Panty Soft Comfort щоденні 12шт</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32245/</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>56</v>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t xml:space="preserve">88.49 </t>
@@ -4993,10 +6225,24 @@
           <t>Прокладки Carefree Plus Large зі Свіжим Ароматом жіночі гігієнічні щоденні 20шт</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64,00 </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,00 </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr777826/</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>29</v>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t xml:space="preserve">95.49 </t>
@@ -5042,10 +6288,24 @@
           <t>Прокладки Bella Ideale Ultra Night Staydrai 7шт</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>36</v>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t xml:space="preserve">92.49 </t>
@@ -5091,10 +6351,24 @@
           <t>Прокладки Bella Perfecta Ultra Rose Deo Fresh 10шт</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>44</v>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t xml:space="preserve">59.00 </t>
@@ -5140,10 +6414,24 @@
           <t>Прокладки Naturella Camomile Classic Night гігієнічні ароматизовані 14шт</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">159,00 </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr43564/</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>61</v>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t xml:space="preserve">94.99 </t>
@@ -5189,10 +6477,24 @@
           <t>Прокладки Bella Ideale Ultra Normal Staydrai 10шт</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>43</v>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t xml:space="preserve">92.49 </t>
@@ -5238,10 +6540,24 @@
           <t>Прокладки Libresse Ultra Long+ гігієнічні 8шт</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29,79 </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49,79 </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016190/</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>67</v>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t xml:space="preserve">149.00 </t>
@@ -5287,10 +6603,24 @@
           <t>Прокладки Always Ultra Sensitive Single гігієнічні ультратонкі нічні 9шт</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>41</v>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -5336,10 +6666,24 @@
           <t>Прокладки Always Ultra Sensitive Super Single гігієнічні ультратонкі 10шт</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>38</v>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -5385,10 +6729,24 @@
           <t>Прокладки Always Ultra Sensitive Normal Plus Duo гігієнічні ультратонкі 14шт</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>39</v>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t xml:space="preserve">72.49 </t>
@@ -5434,10 +6792,24 @@
           <t>Прокладки Libresse Dailies Fresh Extra Long щоденні 24шт</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64,00 </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr103866/</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>71</v>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t xml:space="preserve">59.99 </t>
@@ -5483,10 +6855,24 @@
           <t>Тампони Bella Tampo Premium Comfort Regular 8шт</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49,00 </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr41718/</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>91</v>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t xml:space="preserve">169.00 </t>
@@ -5532,10 +6918,24 @@
           <t>Прокладки Bella Perfecta Ultra Maxi Blue 8шт</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>49</v>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t xml:space="preserve">51.99 </t>
@@ -5581,10 +6981,24 @@
           <t>Прокладки TENA урологічні Lady Slim Mini 18x10p B7</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr113692/</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>52</v>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t xml:space="preserve">94.90 </t>
@@ -5630,10 +7044,24 @@
           <t>Прокладки Naturella Ультра Ніжний Захист Максі Single 7шт</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>33</v>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -5679,10 +7107,24 @@
           <t>Прокладки Bella Panty Sensitive щоденні 20шт</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49,00 </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr647902/</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>65</v>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t xml:space="preserve">92.49 </t>
@@ -5728,10 +7170,24 @@
           <t>Прокладки Libresse Natural Care Ultra Super гігієнічні 9шт</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51,00 </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86,00 </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13789/</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>52</v>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
           <t xml:space="preserve">73.99 </t>
@@ -5777,10 +7233,24 @@
           <t>Прокладки Naturella Camomile Normal Single щоденні гігієнічні ароматизовані 20шт</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49,00 </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr192914/</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>79</v>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -5826,10 +7296,24 @@
           <t>Прокладки Naturella Ультра Ніжний Захист Нормал Плюс Single 8шт</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>31</v>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -5875,10 +7359,24 @@
           <t>Прокладки Libresse Goodnight Maxi гігієнічні 7шт</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36,00 </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016184/</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>39</v>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t xml:space="preserve">95.99 </t>
@@ -5924,10 +7422,24 @@
           <t>Прокладки Libresse Ultra Normal Soft гігієнічні 10шт</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32,00 </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016199/</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>55</v>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t xml:space="preserve">88.49 </t>
@@ -5973,10 +7485,24 @@
           <t>Прокладки Bella for Teens Sensitive Night гігієнічні 8шт</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>50</v>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
           <t xml:space="preserve">44.99 </t>
@@ -6022,10 +7548,24 @@
           <t>Прокладки Bella for Teens Panty Energy щоденні 20шт</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>54</v>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -6071,10 +7611,24 @@
           <t>Прокладки Tena Lady Slim Mini урологічні жіночі 20шт</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr802660/</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>51</v>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t xml:space="preserve">64.99 </t>
@@ -6120,10 +7674,24 @@
           <t>Тампони O.b. ProComfort Normal жіночі гігієнічні 32шт</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>38</v>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -6169,10 +7737,24 @@
           <t>Тампони O.b. ProComfort Super жіночі гігієнічні 32шт</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>46</v>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -6218,10 +7800,24 @@
           <t>Тампони O.b. ProComfort Normal 16шт</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>41</v>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t xml:space="preserve">112.00 </t>
@@ -6267,10 +7863,24 @@
           <t>Тампони Tampax Super Plus Duo з аплікатором 16шт</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>88</v>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -6316,10 +7926,24 @@
           <t>Прокладки Always Ultra Platinum Super Plus Single ультратонкі 7шт</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>41</v>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t xml:space="preserve">149.00 </t>
@@ -6365,10 +7989,24 @@
           <t>Прокладки Always Ultra Platinum Night Single ультратонкі 6шт</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>50</v>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t xml:space="preserve">129.00 </t>
@@ -6414,10 +8052,24 @@
           <t>Прокладки Tena Lady Maxi Night урологічні жіночі 12шт</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119,00 </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr802666/</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>51</v>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t xml:space="preserve">199.00 </t>
@@ -6463,10 +8115,24 @@
           <t>Тампони Bella Tampo Premium Comfort Super Plus 8шт</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr40598/</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>92</v>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
           <t xml:space="preserve">169.00 </t>
@@ -6512,10 +8178,24 @@
           <t>Тампони Bella Tampo Premium Comfort Super 8шт</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119,00 </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr647791/</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>68</v>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
           <t xml:space="preserve">169.00 </t>
@@ -6561,10 +8241,24 @@
           <t>Рідина Bella Control Discreet для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199,00 </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259,00 </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11361/</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>37</v>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t xml:space="preserve">15.90 </t>
@@ -6610,10 +8304,24 @@
           <t>Серветки Bella HydroNatural вологі для інтимної гігієни 20шт</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr647875/</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>39</v>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t xml:space="preserve">26.39 </t>
@@ -6659,10 +8367,24 @@
           <t>Гель Bella Hydro Natural для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119,00 </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr37191/</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>60</v>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t xml:space="preserve">149.00 </t>
@@ -6708,10 +8430,24 @@
           <t>Емульсiя Bella Sensitive для iнтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">125,00 </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">135,00 </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr37190/</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>67</v>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t xml:space="preserve">139.00 </t>
@@ -6753,10 +8489,24 @@
           <t>Серветки Bella Intima вологі для інтимної гігієни 20шт</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr647875/</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>39</v>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t xml:space="preserve">26.39 </t>
@@ -6802,10 +8552,24 @@
           <t>Прокладки Bella for Teens Energy Night гігієнічні 8шт</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>52</v>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -6851,10 +8615,24 @@
           <t>Серветки Bella Sensitive вологі для інтимної гігієни 20шт</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr647875/</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>38</v>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t xml:space="preserve">26.39 </t>
@@ -6900,10 +8678,24 @@
           <t>Прокладки Bella Ideale Ultra Night Staysofti 7шт</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>36</v>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t xml:space="preserve">92.49 </t>
@@ -6949,10 +8741,24 @@
           <t>Тампони O.b. Original Super Plus 16шт</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr658960/</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>55</v>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -6998,10 +8804,24 @@
           <t>Прокладки Bella for Teens Ultra Energy Exotic Fruit 20шт</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26,00 </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32033/</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>55</v>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
           <t xml:space="preserve">98.49 </t>
@@ -7047,10 +8867,24 @@
           <t>Прокладки Libresse Dailies Style Black 30шт</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr103392/</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>73</v>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
           <t xml:space="preserve">89.99 </t>
@@ -7096,10 +8930,24 @@
           <t>Прокладки Kotex Aktive Normal Plus 8шт</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313833/</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>57</v>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -7145,10 +8993,24 @@
           <t>Прокладки Kotex Aktive Super Plus 7шт</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313833/</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>58</v>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t xml:space="preserve">53.99 </t>
@@ -7194,10 +9056,24 @@
           <t>Прокладки Kotex Lux Normal Deo</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104,00 </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr218431/</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>51</v>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t xml:space="preserve">82.99 </t>
@@ -7243,10 +9119,24 @@
           <t>Прокладки Kotex Young Normal 10шт</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52,00 </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr12231/</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>76</v>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
           <t xml:space="preserve">45.00 </t>
@@ -7292,10 +9182,24 @@
           <t>Прокладки Bella Perfecta Ultra Green 10шт</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">75,00 </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32027/</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>82</v>
+      </c>
       <c r="H138" t="inlineStr">
         <is>
           <t xml:space="preserve">58.99 </t>
@@ -7341,10 +9245,24 @@
           <t>Прокладки Seni Lady Slim Normal 20шт</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105,00 </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">117,00 </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr72362/</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>64</v>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -7390,10 +9308,24 @@
           <t>Прокладки Seni Lady Super 15шт</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">143,00 </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr311352/</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>72</v>
+      </c>
       <c r="H140" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -7439,10 +9371,24 @@
           <t>Прокладки Seni Lady Slim Extra 15шт</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105,00 </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">117,00 </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr72362/</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>61</v>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -7488,10 +9434,24 @@
           <t>Прокладки Seni Lady Plus 15шт</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">132,00 </t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">165,00 </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr102500/</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>67</v>
+      </c>
       <c r="H142" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -7537,10 +9497,24 @@
           <t>Підгузки-трусики Tena Lady Pants M Plus для дорослих 9шт</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">302,00 </t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">349,00 </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr62297/</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>79</v>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
           <t xml:space="preserve">189.00 </t>
@@ -7586,10 +9560,24 @@
           <t>Підгузки-трусики Tena Lady Pants L Plus для дорослих 8шт</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">302,00 </t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">349,00 </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr62297/</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>79</v>
+      </c>
       <c r="H144" t="inlineStr">
         <is>
           <t xml:space="preserve">189.00 </t>
@@ -7635,10 +9623,24 @@
           <t>Прокладки Libresse Ultra Normal Deo Soft гігієнічні 10шт</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32,00 </t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016199/</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>54</v>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t xml:space="preserve">88.49 </t>
@@ -7684,10 +9686,24 @@
           <t>Прокладки Libresse Ultra Normal Deo Soft гігієнічні 20шт</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32,00 </t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016199/</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>54</v>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t xml:space="preserve">88.49 </t>
@@ -7733,10 +9749,24 @@
           <t>Прокладки Libresse Ultra Long+ гігієнічні 2х8шт</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29,79 </t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49,79 </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016190/</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>66</v>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t xml:space="preserve">149.00 </t>
@@ -7782,10 +9812,24 @@
           <t>Прокладки Libresse Dailies Style Multistyle щоденні 30шт</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57,00 </t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr35395/</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>74</v>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
           <t xml:space="preserve">89.99 </t>
@@ -7831,10 +9875,24 @@
           <t>Прокладки Discreet Deo Waterlily 20шт</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39,00 </t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20234/</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>74</v>
+      </c>
       <c r="H149" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -7880,10 +9938,24 @@
           <t>Засіб Shik Intimo Delicate Care для інтимної гігієни 300г</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr134250/</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>55</v>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
           <t xml:space="preserve">164.00 </t>
@@ -7929,10 +10001,24 @@
           <t>Тампони Kotex Normal 8шт</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58,00 </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313866/</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>78</v>
+      </c>
       <c r="H151" t="inlineStr">
         <is>
           <t xml:space="preserve">91.99 </t>
@@ -7978,10 +10064,24 @@
           <t>Тампони Kotex Normal 16шт</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100,00 </t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120,00 </t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr226141/</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>83</v>
+      </c>
       <c r="H152" t="inlineStr">
         <is>
           <t xml:space="preserve">91.99 </t>
@@ -8027,10 +10127,24 @@
           <t>Прокладки Lidie Deo Camomile Normal 25шт</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,00 </t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76,00 </t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13298/</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>47</v>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
           <t xml:space="preserve">85.99 </t>
@@ -8076,10 +10190,24 @@
           <t>Тампони Kotex Super 8шт</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58,00 </t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313863/</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>78</v>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
           <t xml:space="preserve">55.49 </t>
@@ -8125,10 +10253,24 @@
           <t>Прокладки Lidie Deo Camomile Normal 50шт</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,00 </t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76,00 </t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13298/</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>49</v>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t xml:space="preserve">85.99 </t>
@@ -8174,10 +10316,24 @@
           <t>Підгузки-трусики Tena для дорослих Pants Normal Medium 2x30p</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">302,00 </t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">349,00 </t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr62297/</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>71</v>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
           <t xml:space="preserve">599.00 </t>
@@ -8223,10 +10379,24 @@
           <t>Тампони Kotex Active Super 16шт</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58,00 </t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313863/</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>88</v>
+      </c>
       <c r="H157" t="inlineStr">
         <is>
           <t xml:space="preserve">91.99 </t>
@@ -8272,10 +10442,24 @@
           <t>Прокладки Lidie Ultra Super 8шт</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,00 </t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76,00 </t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11131/</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>45</v>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t xml:space="preserve">85.99 </t>
@@ -8321,10 +10505,24 @@
           <t>Прокладки Lidie Ultra Normal 10шт</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,00 </t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76,00 </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11131/</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>60</v>
+      </c>
       <c r="H159" t="inlineStr">
         <is>
           <t xml:space="preserve">85.99 </t>
@@ -8370,10 +10568,24 @@
           <t>Прокладки Lidie Normal 25шт</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66,00 </t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76,00 </t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr11131/</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>60</v>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t xml:space="preserve">76.49 </t>
@@ -8419,10 +10631,24 @@
           <t>Прокладки гігієнічні NATURELLA Ultra Camomile Night 14шт</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>53</v>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t xml:space="preserve">49.99 </t>
@@ -8468,10 +10694,24 @@
           <t>Підгузки-трусики Tena Normal L для дорослих 30шт</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">744,00 </t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 145,00 </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr17754/</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>40</v>
+      </c>
       <c r="H162" t="inlineStr">
         <is>
           <t xml:space="preserve">724.00 </t>
@@ -8517,10 +10757,24 @@
           <t>Прокладки Libresse Daily fresh plus multistyle 30шт</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr244345/</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>70</v>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
           <t xml:space="preserve">67.99 </t>
@@ -8566,10 +10820,24 @@
           <t>Прокладки Libresse Ultra Normal Soft гігієнічні 20шт</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32,00 </t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016199/</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>55</v>
+      </c>
       <c r="H164" t="inlineStr">
         <is>
           <t xml:space="preserve">88.49 </t>
@@ -8615,10 +10883,24 @@
           <t>Прокладки Libresse Dailies Style Micro 44шт</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr111227/</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>79</v>
+      </c>
       <c r="H165" t="inlineStr">
         <is>
           <t xml:space="preserve">89.99 </t>
@@ -8664,10 +10946,24 @@
           <t>Прокладки Kotex Deo Normal 56шт</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13297/</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>78</v>
+      </c>
       <c r="H166" t="inlineStr">
         <is>
           <t xml:space="preserve">82.99 </t>
@@ -8713,10 +11009,24 @@
           <t>Прокладки щоденні DISCREET Deo Spring Breeze Multiform 60шт</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111,00 </t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr772030/</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>54</v>
+      </c>
       <c r="H167" t="inlineStr">
         <is>
           <t xml:space="preserve">214.00 </t>
@@ -8762,10 +11072,24 @@
           <t>Прокладки гігієнічні ALWAYS Ultra Platinum Normal Plus Duo 16шт</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>35</v>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
           <t xml:space="preserve">149.00 </t>
@@ -8811,10 +11135,24 @@
           <t>Прокладки щоденні NATURELLACamomile Normal Trio 52шт</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">159,00 </t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219,00 </t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr192935/</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>72</v>
+      </c>
       <c r="H169" t="inlineStr">
         <is>
           <t xml:space="preserve">129.00 </t>
@@ -8860,10 +11198,24 @@
           <t>Прокладки Always Непомітний Захист Normal Single гігієнічні щоденні ароматизовані 20шт</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179,00 </t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259,00 </t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754786/</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>32</v>
+      </c>
       <c r="H170" t="inlineStr">
         <is>
           <t xml:space="preserve">129.00 </t>
@@ -8909,10 +11261,24 @@
           <t>Труси TENA урологічні для жінок Lady Slim Pants Normal L 4x7</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210,00 </t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">323,00 </t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr113677/</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>62</v>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t xml:space="preserve">189.00 </t>
@@ -8958,10 +11324,24 @@
           <t>Труси Tena Lady Slim Normal M урологічні для жінок 8шт</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210,00 </t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">323,00 </t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr113683/</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>49</v>
+      </c>
       <c r="H172" t="inlineStr">
         <is>
           <t xml:space="preserve">144.00 </t>
@@ -9007,10 +11387,24 @@
           <t>Підгузки-трусики Tena для дорослих Pants Normal Large 4x10p</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">744,00 </t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 145,00 </t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr17754/</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>60</v>
+      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t xml:space="preserve">724.00 </t>
@@ -9056,10 +11450,24 @@
           <t>Підгузки-трусики Tena для дорослих Pants Normal Medium 4x10p</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">302,00 </t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">349,00 </t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr62297/</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>73</v>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
           <t xml:space="preserve">599.00 </t>
@@ -9105,10 +11513,24 @@
           <t>Підгузки-труси Tena Plus Night Large для дорослих 12шт</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">344,00 </t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">529,00 </t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr227713/</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>40</v>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
           <t xml:space="preserve">354.00 </t>
@@ -9154,10 +11576,24 @@
           <t>Підгузки-труси Tena Plus Night Medium для дорослих 12шт</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">344,00 </t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">529,00 </t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr227713/</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>39</v>
+      </c>
       <c r="H176" t="inlineStr">
         <is>
           <t xml:space="preserve">319.00 </t>
@@ -9203,10 +11639,24 @@
           <t>Прокладки Always Ultra Super ароматизовані 16шт</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr794509/</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>69</v>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -9252,10 +11702,24 @@
           <t>Прокладки Always Ultra Night ароматизовані 14шт</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>52</v>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
           <t xml:space="preserve">129.00 </t>
@@ -9301,10 +11765,24 @@
           <t>Прокладки Always Ultra Sensitive Super Plus Duo гігієнічні ультратонкі 16шт</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>37</v>
+      </c>
       <c r="H179" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -9350,10 +11828,24 @@
           <t>Прокладки Naturella Ultra Calendula Normal 10шт</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239,00 </t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr754792/</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>46</v>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
           <t xml:space="preserve">124.00 </t>
@@ -9399,10 +11891,24 @@
           <t>Прокладки Kotex Deo Ultra Slim liners 20</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr88389/</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>69</v>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -9448,10 +11954,24 @@
           <t>Прокладки Libresse Maxi Goodnight 16шт</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51,00 </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86,00 </t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13789/</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>41</v>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
           <t xml:space="preserve">95.99 </t>
@@ -9497,10 +12017,24 @@
           <t>Прокладки Libresse Daily fresh plus normal 32шт</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">169,00 </t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr244345/</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>79</v>
+      </c>
       <c r="H183" t="inlineStr">
         <is>
           <t xml:space="preserve">66.99 </t>
@@ -9546,10 +12080,24 @@
           <t>Прокладки Libresse Goognight Ultra Large+ гігієнічні 8шт</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36,00 </t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016184/</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>36</v>
+      </c>
       <c r="H184" t="inlineStr">
         <is>
           <t xml:space="preserve">52.99 </t>
@@ -9595,10 +12143,24 @@
           <t>Прокладки Libresse Goodnight Ultra X-Large гігієнічні 8шт</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36,00 </t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016184/</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>36</v>
+      </c>
       <c r="H185" t="inlineStr">
         <is>
           <t xml:space="preserve">52.99 </t>
@@ -9644,10 +12206,24 @@
           <t>Підгузки Tena Slip Plus Medium для дорослих 10шт</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">743,00 </t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">991,00 </t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr62455/</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>43</v>
+      </c>
       <c r="H186" t="inlineStr">
         <is>
           <t xml:space="preserve">679.00 </t>
@@ -9693,10 +12269,24 @@
           <t>Прокладки Libresse Goodnight Ultra Large+ гігієнічні 16шт</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36,00 </t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016184/</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>36</v>
+      </c>
       <c r="H187" t="inlineStr">
         <is>
           <t xml:space="preserve">52.99 </t>
@@ -9742,10 +12332,24 @@
           <t>Прокладки Libresse Natural Care Ultra Normal гігієнічні 10шт</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51,00 </t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86,00 </t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13789/</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>58</v>
+      </c>
       <c r="H188" t="inlineStr">
         <is>
           <t xml:space="preserve">73.99 </t>
@@ -9791,10 +12395,24 @@
           <t>Підгузки Tena Slip Plus Large 92-144см для дорослих 10шт</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">743,00 </t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">991,00 </t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr62455/</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>40</v>
+      </c>
       <c r="H189" t="inlineStr">
         <is>
           <t xml:space="preserve">1049.00 </t>
@@ -9840,10 +12458,24 @@
           <t>Прокладки Libresse Goodnight Maxi гігієнічні 16шт</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36,00 </t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62,00 </t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016184/</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>38</v>
+      </c>
       <c r="H190" t="inlineStr">
         <is>
           <t xml:space="preserve">95.99 </t>
@@ -9889,10 +12521,24 @@
           <t>Гель Beautyderm з оліями Cannabis для інтимної гігієни 300мл</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149,00 </t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr389333/</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>51</v>
+      </c>
       <c r="H191" t="inlineStr">
         <is>
           <t xml:space="preserve">399.00 </t>
@@ -9938,10 +12584,24 @@
           <t>Тампони Kotex Active Super</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53,00 </t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58,00 </t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313863/</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>96</v>
+      </c>
       <c r="H192" t="inlineStr">
         <is>
           <t xml:space="preserve">91.99 </t>
@@ -9987,10 +12647,24 @@
           <t>Прокладки Kotex Ultra Soft Super 8шт</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313851/</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>74</v>
+      </c>
       <c r="H193" t="inlineStr">
         <is>
           <t xml:space="preserve">79.90 </t>
@@ -10036,10 +12710,24 @@
           <t>Прокладки щоденні Котекс Lux Normal Deo 1</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104,00 </t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr218431/</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>37</v>
+      </c>
       <c r="H194" t="inlineStr">
         <is>
           <t xml:space="preserve">82.49 </t>
@@ -10085,10 +12773,24 @@
           <t>Прокладки Kotex Lux Ultra Slim Deo 60</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104,00 </t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr218431/</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>49</v>
+      </c>
       <c r="H195" t="inlineStr">
         <is>
           <t xml:space="preserve">75.99 </t>
@@ -10134,10 +12836,24 @@
           <t>Прокладки Kotex Deo Normal 20шт</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr13297/</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>73</v>
+      </c>
       <c r="H196" t="inlineStr">
         <is>
           <t xml:space="preserve">82.99 </t>
@@ -10183,10 +12899,24 @@
           <t>Щоденні прокладки deo active liners 4</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85,00 </t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102,00 </t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313833/</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>67</v>
+      </c>
       <c r="H197" t="inlineStr">
         <is>
           <t xml:space="preserve">43.99 </t>
@@ -10232,10 +12962,24 @@
           <t>Прокладки Kotex Normal 20шт</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,00 </t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20368/</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>59</v>
+      </c>
       <c r="H198" t="inlineStr">
         <is>
           <t xml:space="preserve">45.00 </t>
@@ -10281,10 +13025,24 @@
           <t>Прокладки Libresse Dailies Fresh&amp;Protect Regular щоденні 32шт</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64,00 </t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr103866/</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>59</v>
+      </c>
       <c r="H199" t="inlineStr">
         <is>
           <t xml:space="preserve">59.99 </t>
@@ -10330,10 +13088,24 @@
           <t>Прокладки Always Ultra Platinum Collection Normal Plus 8шт</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89,00 </t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">139,00 </t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr861270/</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>43</v>
+      </c>
       <c r="H200" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -10379,10 +13151,24 @@
           <t>Прокладки Always Ultra Light ароматизовані 10шт</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr20077/</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>51</v>
+      </c>
       <c r="H201" t="inlineStr">
         <is>
           <t xml:space="preserve">139.00 </t>
@@ -10428,10 +13214,24 @@
           <t>Прокладки Bella Panty Soft Normal гігієнічні щоденні 60шт</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79,00 </t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99,00 </t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr32245/</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>51</v>
+      </c>
       <c r="H202" t="inlineStr">
         <is>
           <t xml:space="preserve">88.49 </t>
@@ -10477,10 +13277,24 @@
           <t>Прокладки Libresse Pure Sensitive Ultra Night 8шт</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48,49 </t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80,90 </t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr583680/</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>81</v>
+      </c>
       <c r="H203" t="inlineStr">
         <is>
           <t xml:space="preserve">66.99 </t>
@@ -10526,10 +13340,24 @@
           <t>Прокладки Libresse Dailies Pure Sensitive Regular 26шт</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71,00 </t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119,00 </t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr41679/</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>58</v>
+      </c>
       <c r="H204" t="inlineStr">
         <is>
           <t xml:space="preserve">84.90 </t>
@@ -10575,10 +13403,24 @@
           <t>Прокладки Libresse Ultra+ Normal Aloe Vera &amp; Camomile гігієнічні 20шт</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32,00 </t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55,00 </t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr1016199/</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>52</v>
+      </c>
       <c r="H205" t="inlineStr">
         <is>
           <t xml:space="preserve">99.00 </t>
@@ -10624,10 +13466,24 @@
           <t>Прокладки Depend Super урологічні 8шт</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">113,00 </t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129,00 </t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr27984/</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>65</v>
+      </c>
       <c r="H206" t="inlineStr">
         <is>
           <t xml:space="preserve">119.00 </t>
@@ -10673,10 +13529,24 @@
           <t>Трусики Depend Comfort-Protect L-X для жінок 9шт</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">221,00 </t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259,00 </t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr257458/</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>41</v>
+      </c>
       <c r="H207" t="inlineStr">
         <is>
           <t xml:space="preserve">644.00 </t>
@@ -10722,10 +13592,24 @@
           <t>Тампони Kotex Mini 16шт</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59,00 </t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69,00 </t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://eva.ua/ua/pr313860/</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>88</v>
+      </c>
       <c r="H208" t="inlineStr">
         <is>
           <t xml:space="preserve">69.49 </t>
